--- a/src/TestExcel.xlsx
+++ b/src/TestExcel.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9aed04f5de46fd05/Masaüstü/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_F25DC773A252ABDACC104864E9D846D25ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA534AAA-44BC-4D88-B22D-9A644D0612CE}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_F25DC773A252ABDACC104864E9D846D25ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7CA1E38-201B-4B78-A76D-553EC29CC2D0}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>formula 1</t>
   </si>
@@ -52,13 +52,47 @@
   </si>
   <si>
     <t>football ball</t>
+  </si>
+  <si>
+    <t>SecreenShot Dosya İsmi</t>
+  </si>
+  <si>
+    <t>1-48 of over 50,000 results for "formula 1"</t>
+  </si>
+  <si>
+    <t>target/screen-shots/SSformula 1.jpeg</t>
+  </si>
+  <si>
+    <t>1-48 of 302 results for "Galatasaray"</t>
+  </si>
+  <si>
+    <t>target/screen-shots/SSGalatasaray.jpeg</t>
+  </si>
+  <si>
+    <t>1-48 of over 6,000 results for "champion"</t>
+  </si>
+  <si>
+    <t>target/screen-shots/SSchampion.jpeg</t>
+  </si>
+  <si>
+    <t>1-48 of over 10,000 results for "Lakers"</t>
+  </si>
+  <si>
+    <t>target/screen-shots/SSLakers.jpeg</t>
+  </si>
+  <si>
+    <t>1-48 of over 70,000 results for "ladies bag"</t>
+  </si>
+  <si>
+    <t>target/screen-shots/SSladies bag.jpeg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +107,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0F1111"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,11 +150,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -130,6 +171,201 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2514600" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2514600" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2514600" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2514600" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2514600" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -395,20 +631,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125"/>
+    <col min="2" max="2" customWidth="true" width="50.85546875"/>
+    <col min="3" max="3" customWidth="true" width="44.28515625"/>
+    <col min="4" max="4" customWidth="true" width="29.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -416,53 +653,83 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>